--- a/DbLayouts/L5-管理性作業/HlEmpLnYg5Pt.xlsx
+++ b/DbLayouts/L5-管理性作業/HlEmpLnYg5Pt.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-ST1\St1Share\SKL\DB\GenTables\L5-管理性作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8436"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterate="1"/>
 </workbook>
 </file>
 
@@ -150,10 +150,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>HlEmpLnYg5Pt</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>員工姓名</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -357,6 +353,10 @@
   <si>
     <t>最後更新人員</t>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>HlEmpLnYg5Pt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -946,8 +946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -967,10 +967,10 @@
       </c>
       <c r="B1" s="30"/>
       <c r="C1" s="3" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
@@ -995,7 +995,7 @@
       </c>
       <c r="B3" s="32"/>
       <c r="C3" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>18</v>
@@ -1079,7 +1079,7 @@
         <v>25</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D9" s="27" t="s">
         <v>19</v>
@@ -1095,10 +1095,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D10" s="27" t="s">
         <v>19</v>
@@ -1113,10 +1113,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D11" s="27" t="s">
         <v>19</v>
@@ -1131,13 +1131,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C12" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="27" t="s">
         <v>32</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>33</v>
       </c>
       <c r="E12" s="28">
         <v>15</v>
@@ -1149,13 +1149,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E13" s="28">
         <v>6</v>
@@ -1168,10 +1168,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D14" s="27" t="s">
         <v>19</v>
@@ -1187,13 +1187,13 @@
         <v>7</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E15" s="28">
         <v>20</v>
@@ -1205,10 +1205,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D16" s="27" t="s">
         <v>19</v>
@@ -1223,10 +1223,10 @@
         <v>9</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D17" s="27" t="s">
         <v>27</v>
@@ -1243,10 +1243,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D18" s="27" t="s">
         <v>27</v>
@@ -1263,10 +1263,10 @@
         <v>11</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D19" s="27" t="s">
         <v>27</v>
@@ -1283,10 +1283,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D20" s="27" t="s">
         <v>27</v>
@@ -1303,10 +1303,10 @@
         <v>13</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D21" s="27" t="s">
         <v>27</v>
@@ -1323,10 +1323,10 @@
         <v>14</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D22" s="27" t="s">
         <v>27</v>
@@ -1343,10 +1343,10 @@
         <v>15</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D23" s="27" t="s">
         <v>27</v>
@@ -1363,10 +1363,10 @@
         <v>16</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="27" t="s">
         <v>19</v>
@@ -1381,10 +1381,10 @@
         <v>17</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D25" s="27" t="s">
         <v>27</v>
@@ -1402,7 +1402,7 @@
         <v>26</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D26" s="27" t="s">
         <v>28</v>
@@ -1417,10 +1417,10 @@
         <v>19</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D27" s="27" t="s">
         <v>20</v>
@@ -1435,7 +1435,7 @@
         <v>20</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C28" s="27" t="s">
         <v>21</v>
@@ -1453,7 +1453,7 @@
         <v>21</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C29" s="27" t="s">
         <v>23</v>
@@ -1474,7 +1474,7 @@
         <v>24</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D30" s="27" t="s">
         <v>22</v>
@@ -1656,29 +1656,29 @@
         <v>30</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="20" t="s">
-        <v>45</v>
-      </c>
       <c r="C3" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="C4" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3">
